--- a/APrep/Motiv_Quotes.xlsx
+++ b/APrep/Motiv_Quotes.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NepoleanHills" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Speech</t>
   </si>
@@ -175,6 +176,14 @@
       <t>:
 கருத்துக்களை ஒழுங்காகக் கோர்த்து இனியாக சொல்ல வல்லவரைப் பெற்றால், உலகம் விரைந்து அவருடைய ஏவலைக் கேட்டு நடக்கும்.</t>
     </r>
+  </si>
+  <si>
+    <t>Habits +ve Mental Att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  
+-- 
+-- </t>
   </si>
 </sst>
 </file>
@@ -218,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -227,6 +236,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -569,4 +581,33 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>